--- a/CashFlow/CAH_cashflow.xlsx
+++ b/CashFlow/CAH_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>53888000000.0</v>
+        <v>-674000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>53244000000.0</v>
+        <v>-1010000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>40161000000.0</v>
+        <v>-409000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>26757000000.0</v>
+        <v>-214000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>14357000000.0</v>
+        <v>-789000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-17000000.0</v>
@@ -990,19 +990,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1776000000.0</v>
+        <v>88281000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1963000000.0</v>
+        <v>86505000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>6861000000.0</v>
+        <v>70028000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>7355000000.0</v>
+        <v>48538000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>7352000000.0</v>
+        <v>27076000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>5488000000.0</v>
